--- a/model prijetnji.xlsx
+++ b/model prijetnji.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Desktop\Master-SEP\ftn-e2-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BD4DA7-250A-451C-905D-941FE651D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96570AD6-0AF9-479B-B29B-090CEFF9118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="735" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="735" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Osnovne informacije" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="220">
   <si>
     <t>1.0</t>
   </si>
@@ -182,15 +182,9 @@
     <t>Napadač pristupa serveru u cilju da promijeni podatke u konfiguracionim fajlovima i drugim resursima od značaja.</t>
   </si>
   <si>
-    <t>Da, pristup fajlovima je zaštićen putem ACL listi.</t>
-  </si>
-  <si>
     <t>Napadač pristupa bazi podataka radi krađe lozinki.</t>
   </si>
   <si>
-    <t>Da. Lozinke su enkriptovane pomoću hash f-ja uz dodatni salt mehanizam.</t>
-  </si>
-  <si>
     <t>Ubacivanje zaraženog koda putem formi za registraciju i logovanje.</t>
   </si>
   <si>
@@ -206,12 +200,6 @@
     <t>Napadač pokušava da ukrade kredencijale, sesiju, lične podatke itd.</t>
   </si>
   <si>
-    <t xml:space="preserve">Napadač pokušava da podmetne svoj sertifikat korisniku pri čemu ga korisnik prihvata. </t>
-  </si>
-  <si>
-    <t>Da. Primijenjeno je zaglavlje HTTPS-a kako bi onemogućili korisnicima da prihvate loše sertifikate.</t>
-  </si>
-  <si>
     <t>Da. Sa servera su vraćene poruke koje ne otkrivaju implementacione detalje. Rađena je konfiguracija servera.</t>
   </si>
   <si>
@@ -248,12 +236,6 @@
     <t>6.2</t>
   </si>
   <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>Ne. Korišćenje alata koji registruju neuobičajne radnje i  blokiraju veliki broj zahtjeva. Obezbjeđivanje većeg protoka na mreži.</t>
-  </si>
-  <si>
     <t>Na sesiju se kači velika količina podataka koja se dodatno povećava porastom broja korisnika, pri čemu sistem usporava.</t>
   </si>
   <si>
@@ -269,18 +251,9 @@
     <t xml:space="preserve">Napadač dobija pristup informacija za koje nije autorizovan. </t>
   </si>
   <si>
-    <t>Da. Korišćena je autorizaciju na osnovu permisija, zasnovana na RBAC modelu.</t>
-  </si>
-  <si>
     <t>Napadač zaobilazi provjere kontrole pristupa izvršavajući napade ubrizgavanjem.</t>
   </si>
   <si>
-    <t xml:space="preserve">Napadač koristi CSRF da bi prisilio drugog korisnika da pozove određenu funkciju. </t>
-  </si>
-  <si>
-    <t>Data flow: Korisnik -&gt; Authorization provider</t>
-  </si>
-  <si>
     <t>Rizici</t>
   </si>
   <si>
@@ -326,9 +299,6 @@
     <t>Prihvaćen</t>
   </si>
   <si>
-    <t>Validacija podataka, ograničenje veličine podataka, rezultate ne kačiti na sesiju.</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -338,12 +308,6 @@
     <t>Riješeno. Korisnicima dati upute kako da se ponašaju kod takvih situacija i da niko od korisnika ne smije tražiti osjetljive radnje poput logovanje preko email poruke, pa ni admin sistema.Ako je pristigli e-mail sumnjiv na bilo koji način ne treba ga otvarati. Mi u svom sistemu koristimo digitalne potpise i bezbjednosne sertifikate</t>
   </si>
   <si>
-    <t>Napadač može da stvori maliciozne pakete sa lažnom adresom izvora i samim tim zavara svoj trag i stekne neovlašćen pristup sistemu za autentifikaciju</t>
-  </si>
-  <si>
-    <t>Riješeno. Implementirana dobra enkripcija i autentifikacija.</t>
-  </si>
-  <si>
     <t>Korisnik može dobiti e-mail poruku sa url-ovima koji liče na poznate adrese, ali iza njih su skriveni maliciozni sajtovi.</t>
   </si>
   <si>
@@ -353,61 +317,19 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Može se desiti neovlašćena promjena fajlova u kojim se cuvaju media sadržaji i to na mestima gde napadačima odgovara kako bi mogli da izvode neke druge napade.</t>
-  </si>
-  <si>
-    <t>Riješeno. Pristup fajlovima je obezbjeđen preko ACL.</t>
-  </si>
-  <si>
-    <t>Ubacivanjem malicioznog koda može se izazvati formatiranje diska i druga oštećenja rada računara.</t>
-  </si>
-  <si>
-    <t>Riješeno. ESAPI biblioteka i XSSFilter pročišćavaju svako polje na frontu i onemogućuje ubacivanje takvog koda.</t>
-  </si>
-  <si>
     <t>Ubacivanjem nevalidiranih podataka napadač može da pošalje maliciozan kod koji će se izvršiti na bazi, back-end ili front-end strani naše aplikacije i tako ugroziti našu aplikaciju i podatke koje naša aplikacija obrađuje.</t>
   </si>
   <si>
-    <t>Riješeno. Dobra validacija i na backendu i na frontendu. Validirali smo svako polje svake klase.</t>
-  </si>
-  <si>
     <t>Repudiation</t>
   </si>
   <si>
-    <t>Napadač se može predstaviti kao registrovani i ulogovani korisnik i može da objavi novu sliku ili video zapis.</t>
-  </si>
-  <si>
-    <t>Riješeno. Provjera identiteta pri svakoj akciji.</t>
-  </si>
-  <si>
-    <t>Napadač se može predstaviti kao registrovani i ulogovani korisnik i može da izmijeni informacije o post-u ili story-ju.</t>
-  </si>
-  <si>
     <t>Riješeno. Vođenje evidencije o svim prijavama na sistem u log fajlovima kojima ne može pristupiti neko bez dozvole.</t>
-  </si>
-  <si>
-    <t>Korisnik može da obriše objavu tipa post ili story i tvrdi da to on nije uradio.</t>
-  </si>
-  <si>
-    <t>Riješeno. Takođe, korišćenje digitalnog potpisivanja omogućuje neporecivost i pomaže u odbrani od ove vrste napada.</t>
   </si>
   <si>
     <t>Information
 Disclosure</t>
   </si>
   <si>
-    <t>Napadač se može otići na određen URL naše web aplikacije i dobiti listu direktorijuma i tako steći uvid u strukturu naše  web aplikacije</t>
-  </si>
-  <si>
-    <t>Riješeno. Kako bi se izbjegao ovaj napad, neophodno je pravilno konfigurisanje web servera od strane administratora.</t>
-  </si>
-  <si>
-    <t>Može doći do SQL Injection-a prilikom unosa(popunjavanje određene forme, npr. unosa opisa posta, story-ja itd.)</t>
-  </si>
-  <si>
-    <t>Riješeno. Dobra validacija i na backendu i na frontendu. Korišćenje JPA Repository koji koristi prepared statement. Maliciozni kod se gleda kao najobičniji podatak, a ne kao naredba.</t>
-  </si>
-  <si>
     <t>Napadač može saznati određene informacije putem ispisa grešaka koje dobija na frontu.</t>
   </si>
   <si>
@@ -418,49 +340,16 @@
 Service</t>
   </si>
   <si>
-    <t>Napadač pokušava da optereti sistem na aplikativnom nivou tako što šalje veliki broj legalnih GET zahjteva za nekim resursema kao što su izlistavanje svih objava korisnika.</t>
-  </si>
-  <si>
-    <t>Ne. Ali koristimo hardvere koji će registrovati neuobičajne radnje i suspendovati sumnjiv pristup sistemu.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prilikom razvoja aplikacije može se slučajno zaboraviti da je neophodno zatvaranja konekcije sa bazom podataka, koja se otvara da bi se izvršila određena komunikacija. Napadač to može iskoristiti da pokrene veći broj istih radnji. </t>
-  </si>
-  <si>
-    <t>Ne. Ali se radi česta analiza koda i testiranje performansi sistema, odnosno izdržljivosti.</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>Prilikom razvoja aplikacije na sesiju se kači velika količina podataka, pa se količina podataka, koja se čuva na sesiji, povećava usled velikog broja korisnika i sistem se time usporava.</t>
-  </si>
-  <si>
-    <t>Riješeno. Vođenje računa o količini podataka koji se kače na sesiju.</t>
   </si>
   <si>
     <t>Elevation of
 Privilege</t>
   </si>
   <si>
-    <t>Registrovani korisnik pokušava odbiti zahtjev za prijavu neprikladnog sadržaja i tako pristupa ovlašćenjima koje ima samo admin sistema.</t>
-  </si>
-  <si>
-    <t>Riješeno. Primjena RBAC u vidu permisija na svaki endpoint.</t>
-  </si>
-  <si>
-    <t>Admin sistema pokušava objaviti post ili story tako što pristupa akcijama koje ima samo registrovani korisnik.</t>
-  </si>
-  <si>
-    <t>Riješeno. Kontrola pristupa u vidu permisija.</t>
-  </si>
-  <si>
     <t>Maliciozni admin se loguje kao korisnik i preuzima kontrolu nad  njegovim permisijama.</t>
   </si>
   <si>
-    <t>Riješeno. Hash &amp; Salt za lozinke, White and Black list. Pravila za kreiranje lozinke (malo, veliko slovo, specijlani karakter, broj, minimum 10 karaktera...)</t>
-  </si>
-  <si>
     <t>Ozbiljnost</t>
   </si>
   <si>
@@ -476,30 +365,12 @@
     <t>Inforimisati se o riziku i obučiti ljude za njegovo izbjegavanje.Validacija</t>
   </si>
   <si>
-    <t>Promjena privilegija na operativnom sistemu preko neovlašćenog pritupa može imate koban rizik po naš sistem.</t>
-  </si>
-  <si>
-    <t>Ugradnja validanog digitalnog serifikata. ACL.</t>
-  </si>
-  <si>
-    <t>RBAC primjena permisija na svaki endpoint umnogome smanjuje rizik ove prijetnje.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Dobra validacija je najbolja odbrana od ove prijentnje po sistem. Bez validacije i lošeg ispisa poruka na front umnogome olakšavamo posao napadaču.</t>
   </si>
   <si>
     <t>Česta analiza koda i performansi sistema poboljšava izglede za smanjene ovog rizika. Puzdan hardver.</t>
   </si>
   <si>
-    <t>Rizik jeste da se neovlašćeno mijenjaju i brišu podaci u bazi. Prepared statement. Zabrana izvršenja skripti umnogome smanjuje ovaj rizk.</t>
-  </si>
-  <si>
-    <t>Da. Konfigurisano je blokiranje CSRF napada.</t>
-  </si>
-  <si>
     <t>Kredencijali korisnika</t>
   </si>
   <si>
@@ -519,9 +390,6 @@
   </si>
   <si>
     <t>Proizvodi</t>
-  </si>
-  <si>
-    <t>Da bi se korisnici zaštitili neophodno je da koriste najnovije verzije browsera i izbjegavaju potencijalno maliciozne sajtove. Lažne web adrese nemaju osiguranu HTTPS komunikaciju. Pored toga, za logovanje je korišćen mehanizam Two Factor Authentication.</t>
   </si>
   <si>
     <t>Da. Validacije polja je rađena na frontend-u i backend-u. 
@@ -529,19 +397,7 @@
 skriptama. Takođe je impelentirana odbrana od XSS i Injection napada.</t>
   </si>
   <si>
-    <t>Napadač se predstavlja kao korisnik. Korisnik tvrdi da je došlo do komunikacije koja se nije dogodila ili obrnuto. Primjer napada je kada napadač koristi permisije admina kako bi odobrio zahtjev za verifikaciju admina, izmijenio lozinku itd.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Napadač dobija informacije o radu servera i greškama koje se javljaju u sistemu i to koristi u svrhe napada (npr. informacija o pogrešnim kredencijalima prilikom logovanja). </t>
-  </si>
-  <si>
-    <t>Napadač optereti server slanjem velikog broja zahtjeva čime server usporava rad ili postaje nedostupan. Kao primjer za to može poslužiti pretraga profila po username-u korisnika.</t>
-  </si>
-  <si>
-    <t>Da. Implementirana validacija na frontendu i backendu i escapovanje potencijalno opasnog koda. Implementirano blokiranje XSS i Injection napada.</t>
-  </si>
-  <si>
-    <t>Da. Nakon komunikacije sa bazom zatvara se konekcija. Pri unosu veličina podataka je ograničena validacijom. Pretraga je rađena na frontendu. Koriščen je load balancer koji smanjuje mogućnost otkazivanja servera.</t>
   </si>
   <si>
     <t>Napadač koristi lažnu adresu u cilju da prevari računar da su informacije koje šalje iz pouzdanog izvora i na taj način omogućava se prolazak zlonamjernog sadržaja. (IP spoofing)</t>
@@ -566,12 +422,6 @@
     </r>
   </si>
   <si>
-    <t>Korišćenje HTTPS protokola, enkripcija, autentifikacija, Two Factor Authentication. Obučavanje korisnika o potencijalnim opasnostima.</t>
-  </si>
-  <si>
-    <t>Enkripcija, validiranje formi na fronendu i backendu, korišćenje ACL listi. Sprečavanje XSS i Injection napada.</t>
-  </si>
-  <si>
     <t>Iako je ovo napad na neporecivost i može da prouzrokuje veće štete na sistemu, u slučaju da do njega dođe moći ćemo se uspješno izboriti zbog rješenja koja su implementirana na sistemu.</t>
   </si>
   <si>
@@ -587,9 +437,6 @@
     <t>Da bi se ovakav napad uspješno izveo potrebno je da napadač šalje veliki broj zahtjeva za velikog broja uređaja. S obzirom na to, napad se najčešće realizuje organizovano od strane grupe ljudi, pa je vjerovatnoća da će do njega doći srednja. Iako može da učini naš sistem nedostupnim (CIA trijada), ovakvi napadi neće ugroziti korisničke podatke pa su njegove posljedice znatno manje.</t>
   </si>
   <si>
-    <t>Autorizaciju po RBAC-u, korišćenje permisija, validacija formi i zaštita od CSRF.</t>
-  </si>
-  <si>
     <t>Sadrže različite podatke koje koriste servisi.</t>
   </si>
   <si>
@@ -602,51 +449,12 @@
     <t>S obzirom na implementaciju različitih mehanizama u borbi protiv ove vrste napada, vjerovatnoća da će do njega doći je smanjena na minimum. Takođe redovno ažuriranje korišćenih biblioteka i mehanizama odbrane značajno smanjuje ovu vrstu opasnih napada.</t>
   </si>
   <si>
-    <t>Prilikom upload-a fajlova napadac moze da presretne taj zahtev i izvrsi izmene.</t>
-  </si>
-  <si>
-    <t>Napadac moze poslati preveliki broj Get zahteva za dobavljanje media i na taj nacin usporiti ili potpuno onemoguciti rad servisa.</t>
-  </si>
-  <si>
     <t>Ne. Ali moguce je filtrirati zahteve na osnovu ip-adrese tj.detektovanje i provera sumnjive ip-adrese ili ogranicavanje broja zahteva sa iste adrese.</t>
   </si>
   <si>
-    <t>Da. Postavljeno ogranicenje na velicinu fajla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postavljanjem fajlova prevelike velicine moze se zagusiti server ili smanjiti njegov kapacitet za obradu svih zahteva. </t>
-  </si>
-  <si>
-    <t>Rijeseno. Poruke prosledjene korisniku ne sadrze strukturu fajl sistema ni detalje implementacije.</t>
-  </si>
-  <si>
     <t>Napadac moze saznati odredjene informacije putem ispisa gresaka koje dobija na frontu.</t>
   </si>
   <si>
-    <t>Napadac pristupa nekim podacima za koje nema pravo pristupa.</t>
-  </si>
-  <si>
-    <t>Rijeseno. Proverava se lista pratioca korisnika ciji je sadrzaj trazen i provera se da li je profil tog korisnika javan ili nije.</t>
-  </si>
-  <si>
-    <t>Napadac moze saznati strukturu fajl sistema.</t>
-  </si>
-  <si>
-    <t>Rijeseno. Na front se salje samo ime fajla a ne cijela putanja do njega.</t>
-  </si>
-  <si>
-    <t>Korisnik moze da objavi  post ili story i tvrdi da to on nije uradio.</t>
-  </si>
-  <si>
-    <t>Korisnik moze da obrise post ili story i tvrdi da to on nije uradio.</t>
-  </si>
-  <si>
-    <t>Rijeseno. Koristenjem log fajlova u kojima su informacije o aktivnosti korisnika sa odredjene ip-adrese.</t>
-  </si>
-  <si>
-    <t>Rijeseno. Koristenjem  log fajlova u kojima su informacije o aktivnosti korisnika sa odredjene ip-adrese.</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -656,34 +464,13 @@
     <t>Napadac vrsi sql injection i dobija prava pristupa admina sistema.</t>
   </si>
   <si>
-    <t>Riješeno. Koristenjem Hibernate biblioteke vrsi se escape unosa korisnika.</t>
-  </si>
-  <si>
     <t>Prihvacen</t>
   </si>
   <si>
-    <t>Rijeseno. Prilikom komunikacije koristi se enkripcija (https) .</t>
-  </si>
-  <si>
-    <t>Ugrozeni su fajl resursi kao i kredibilitet nase aplikacije. Moguce je dodati digitalni potpis.</t>
-  </si>
-  <si>
-    <t>Dodavanje digitalnog potpis.</t>
-  </si>
-  <si>
-    <t>Nemogucnost utvrdjivanja vlasnika sadrzaja onemogucuje njegovo brisanje ili objavljivanje.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ugrozeni su resursi su fajlovi korisnika koji su na ovaj nacin dovoljno dobro zasticeni. </t>
-  </si>
-  <si>
     <t>Ogranicenje broja zahteva sa iste ip-adrese u odredjenom vremenskom roku ili ukljucivanje dodatnog servisa koji to obavlja(npr.cloud flare).</t>
   </si>
   <si>
     <t>Od velike vaznosti je sprecavanje pada sistema jer to nepovoljno utice na zadovoljstvo korisnika.</t>
-  </si>
-  <si>
-    <t>Kredencijali korisnika su ugrozeni a napad na prava pristupa admina moze biti kobno po funkcionisanje celokupnog sistema.</t>
   </si>
   <si>
     <t>Jelena Budiša E2 47/2021, Stevan Rašković E2 54/2021, Stefan Jokić E2 57/2021</t>
@@ -765,34 +552,210 @@
     <t>Proces: WebShop</t>
   </si>
   <si>
-    <t>Authorization-Service</t>
-  </si>
-  <si>
     <t>Proces: Payment Service Provider (PSP)</t>
   </si>
   <si>
     <t>Proces: PSP</t>
   </si>
   <si>
-    <t>Publishing-Service</t>
-  </si>
-  <si>
     <t>Proces: Bank</t>
   </si>
   <si>
-    <t>MediaService</t>
+    <t xml:space="preserve">Da bi se korisnici zaštitili neophodno je da koriste najnovije verzije browsera i izbjegavaju potencijalno maliciozne sajtove. Lažne web adrese nemaju osiguranu HTTPS komunikaciju. </t>
+  </si>
+  <si>
+    <t>Da, servisi su pokrenuti unutar Docker kontejnera I dozvoljen je pristup isključivo na portovima koje koristi aplikacija putem Reverse Proxy-ja.</t>
+  </si>
+  <si>
+    <t>Napadač se predstavlja kao korisnik. Korisnik tvrdi da je došlo do komunikacije koja se nije dogodila ili obrnuto. Primjer napada je kada napadač koristi permisije admina kako bi izmijenio lozinku itd.</t>
+  </si>
+  <si>
+    <t>Data flow: Korisnik -&gt; WebShop</t>
+  </si>
+  <si>
+    <t>Napadač optereti server slanjem velikog broja zahtjeva čime server usporava rad ili postaje nedostupan. Kao primjer za to može poslužiti pretraga proizvoda.</t>
+  </si>
+  <si>
+    <t>Ne. Korišćenje alata koji registruju neuobičajne radnje i  blokiraju veliki broj zahtjeva. Obezbjeđivanje većeg protoka na mreži. Moguća je konfiguracija Hasura servisa koja ograničava pristup bazi podataka.</t>
+  </si>
+  <si>
+    <t>Da. Korišćena je autorizaciju na osnovu permisija uz oslonac na Hasuru.</t>
+  </si>
+  <si>
+    <t>Da. Escapovanje potencijalno opasnog koda. Implementirano blokiranje XSS i Injection napada na Hasura servisu.</t>
+  </si>
+  <si>
+    <t>Korišćenje HTTPS protokola, enkripcija, autentifikacija. Obučavanje korisnika o potencijalnim opasnostima.</t>
+  </si>
+  <si>
+    <t>Regulisana prava pristupa. Sprečavanje XSS i Injection napada.</t>
+  </si>
+  <si>
+    <t>Da. Lozinke su heširane pomoću hash f-ja uz dodatni salt mehanizam.</t>
+  </si>
+  <si>
+    <t>Rezultate ne kačiti na sesiju.</t>
+  </si>
+  <si>
+    <t>Autorizacija, korišćenje permisija, validacija formi.</t>
+  </si>
+  <si>
+    <t>Može se desiti neovlašćena promjena konfiguracija provajdera za plaćanje kako bi se novčana sredstva preusmjerila na zlonamerne račune.</t>
+  </si>
+  <si>
+    <t>Riješeno. Pristup i izmena podataka zahteva autorizaciju.</t>
+  </si>
+  <si>
+    <t>Ubacivanjem malicioznog koda može se izmeniti stanje transakcija i podaci dovesti u nekonzistentno stanje.</t>
+  </si>
+  <si>
+    <t>Riješeno. Izmena podataka vrši se isključivo preko Hasura servisa kojoj backend strana daje instrukcije koje izmene treba izvršiti. Ova komunikacija osigurana je HTTPS protokolom i upotrebom odgovarajućih zaglavlja zahteva za autorizaciju.</t>
+  </si>
+  <si>
+    <t>Napadač se može predstaviti kao registrovani i ulogovani korisnik i može da izmijeni informacije o načinima plaćanja.</t>
+  </si>
+  <si>
+    <t>Korisnik može da obriše način plaćanja ili API key i tvrdi da to on nije uradio.</t>
+  </si>
+  <si>
+    <t>Riješeno. Takođe, korišćenje autorizacije i log fajlova omogućuje neporecivost i pomaže u odbrani od ove vrste napada.</t>
+  </si>
+  <si>
+    <t>Može doći do SQL Injection-a prilikom unosa(popunjavanje određene forme itd.)</t>
+  </si>
+  <si>
+    <t>Riješeno. Hasura ima ugrađenu zaštitu od ove vrste napada. Maliciozni kod se gleda kao najobičniji podatak, a ne kao naredba.</t>
+  </si>
+  <si>
+    <t>Napadač se može dobiti pristup transakcijama koje nisu njegove.</t>
+  </si>
+  <si>
+    <t>Riješeno. Kako bi se izbjegao ovaj napad, neophodno je poznavanje tajnih parametara(API key i API secret) za pristup informacijama.</t>
+  </si>
+  <si>
+    <t>Napadač pokušava da optereti sistem na aplikativnom nivou tako što šalje veliki broj legalnih GET zahjteva za nekim resursema kao što su izlistavanje svih podataka korisnika.</t>
+  </si>
+  <si>
+    <t>Ne. Mogu se koristiti hardveri koji će registrovati neuobičajne radnje i suspendovati sumnjiv pristup sistemu.</t>
+  </si>
+  <si>
+    <t>Da. Hasura vodi računa o zatvaranju konekcije sa bazom, kao i uopšteno komunikacije sa bazom podataka.</t>
+  </si>
+  <si>
+    <t>Registrovani korisnik pokušava promeniti stanje transakcije.</t>
+  </si>
+  <si>
+    <t>Riješeno. Primjena permisija za izmenu podataka koje ne poseduje korisnik.</t>
+  </si>
+  <si>
+    <t>Riješeno. Hash &amp; Salt za lozinke.</t>
+  </si>
+  <si>
+    <t>Čitav sistem biće izložen riziku, dolazi do brisanja ili izmjene podataka u bazi i nekonzistentnosti u odnosu na baze drugih servisa preko neovlašćenog pristupa. Može imate koban rizik po naš sistem.</t>
+  </si>
+  <si>
+    <t>Upotreba odgovarajućih permisija.</t>
+  </si>
+  <si>
+    <t>Vođenje evidencije o svim prijavama na sistem u log fajlovima kojima ne može pristupiti neko bez dozvole. Korištenje autorizacije.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upotreba Hasura alata koji ima ugrađenu zaštitu od ovakvih vrsta napada. </t>
+  </si>
+  <si>
+    <t>Može se riješiti upotrebom  specijalizovanih hardvera.</t>
+  </si>
+  <si>
+    <t>Rizik jeste da se neovlašćeno mijenjaju i brišu podaci u bazi.</t>
+  </si>
+  <si>
+    <t>Primjena permisija za izmenu podataka koje ne poseduje korisnik. Heširanje osjetljivih podataka.</t>
+  </si>
+  <si>
+    <t>Servis napadača se predstavlja kao servis aplikacije. Korisniku se prikazuje lažna stranica banke gdje se očekuje da unese podatke o bankovnoj kartici.</t>
+  </si>
+  <si>
+    <t>Riješeno. Korisnicima dati upute kako da se ponašaju kod takvih situacija i da niko od korisnika ne smije tražiti osjetljive podatke kao ni logovanje preko email poruke, pa ni admin sistema. Mi u svom sistemu koristimo bezbjednosne sertifikate i HTTPS protokol.</t>
+  </si>
+  <si>
+    <t>Ovaj rizik može ugroziti resurse poput podataka o karticama korisnika aplikacije.</t>
+  </si>
+  <si>
+    <t>Inforimisati se o riziku i obučiti ljude za njegovo izbjegavanje. Sakrivanje PAN broja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riješeno. Hasura poseduje ugrađene mehanizme zaštite. Dobra validacija i na backendu i na frontendu. </t>
+  </si>
+  <si>
+    <t>Riješeno. Hasura poseduje ugrađene mehanizme zaštite. Dobra validacija i na backendu i na frontendu. Prilikom komunikacije koristi se HTTPS. Osjetljivi podaci u bazi su enkriptovani pa ih nije moguće izmeniti bez ključa a da ostanu validni.</t>
+  </si>
+  <si>
+    <t>Prilikom komunikacije koristi se HTTPS. Osjetljivi podaci u bazi su enkriptovani pa ih nije moguće izmeniti bez ključa a da ostanu validni.</t>
+  </si>
+  <si>
+    <t>Korisnik moze da izvrši plaćanje i tvrdi da to nije uradio.</t>
+  </si>
+  <si>
+    <t>Riješeno. Korištenjem log fajlova u kojima su informacije o aktivnosti korisnika sa odredjene ip-adrese. Čuvanje podataka o transakcijama u bazi.</t>
+  </si>
+  <si>
+    <t>Nemogucnost utvrdjivanja validnosti podataka o izvršenim transakcijama može izazvati velike probleme po sistem.</t>
+  </si>
+  <si>
+    <t>Zahteva se unos svih podataka sa kartice prilikom transakcije. Čuvanje podataka u log fajlovima i u bazi.</t>
+  </si>
+  <si>
+    <t>Napadac pristupa nekim podacima za koje nema pravo pristupa kao što su podaci o karticama.</t>
+  </si>
+  <si>
+    <t>Riješeno. Poruke prosledjene korisniku ne sadrze strukturu detalje implementacije.</t>
+  </si>
+  <si>
+    <t>Riješeno. Kontrola prava pristupa i podaci o karticama su heširani ili enkriptovani.</t>
+  </si>
+  <si>
+    <t>Ugrozeni su resursi kao što su podaci sa kartice korisnika.</t>
+  </si>
+  <si>
+    <t>Kontrola prava pristupa. Podaci su heširani ili enkriptovani.</t>
+  </si>
+  <si>
+    <t>Napadac moze poslati preveliki broj zahteva i time zagušiti server i onemogućiti njegov ispravan rad.</t>
+  </si>
+  <si>
+    <t>Maliciozni admin uzima podatke o karticama iz baze podataka.</t>
+  </si>
+  <si>
+    <t>Riješeno. Podaci o karticama su enkriptovani i heširani.</t>
+  </si>
+  <si>
+    <t>Riješeno. Hasura ima mehanizme za sprečavanje ove vrste napada.</t>
+  </si>
+  <si>
+    <t>Kartice korisnika su ugrozene a napad na prava pristupa admina moze biti kobno po funkcionisanje celokupnog sistema.</t>
+  </si>
+  <si>
+    <t>Upotreba odgovarajućih kriptografskih zaštita sprečava napade na sistem.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1147,58 +1110,58 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1207,268 +1170,292 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1870,7 +1857,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,10 +1867,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="51"/>
+      <c r="A1" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1894,39 +1881,39 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>222</v>
+      <c r="B3" s="59" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="60"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="60"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="60"/>
     </row>
     <row r="8" spans="1:2" ht="269.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="61"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1956,11 +1943,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -1977,20 +1964,20 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
@@ -1998,10 +1985,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
@@ -2009,42 +1996,42 @@
         <v>7</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="32">
         <v>2</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -2054,7 +2041,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2065,17 +2052,17 @@
         <v>30</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="65"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
@@ -2100,11 +2087,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
     </row>
     <row r="16" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
@@ -2129,113 +2116,113 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="62"/>
+      <c r="C19" s="67"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>1</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="68"/>
     </row>
     <row r="21" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" s="65"/>
+      <c r="B21" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="70"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>2</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="68"/>
     </row>
     <row r="23" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="C23" s="58"/>
+      <c r="B23" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="72"/>
     </row>
     <row r="24" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="60"/>
+      <c r="B24" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="74"/>
     </row>
     <row r="25" spans="1:3" ht="214.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="58"/>
+      <c r="B25" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="72"/>
     </row>
     <row r="26" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="58"/>
+      <c r="B26" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="72"/>
     </row>
     <row r="27" spans="1:3" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="58"/>
+      <c r="B27" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="72"/>
     </row>
     <row r="28" spans="1:3" ht="50.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" ht="64.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2256,669 +2243,669 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
       <c r="O1" s="16"/>
     </row>
     <row r="2" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
     </row>
     <row r="22" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="74"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="79"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="77"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="82"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="77"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="82"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="77"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="82"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="77"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="82"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="77"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="82"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="77"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="82"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="77"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="82"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="75"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="77"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="82"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="75"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="77"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="82"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="75"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="77"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="82"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="75"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="77"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="82"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="75"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="77"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="82"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="75"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="77"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="82"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="77"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="82"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="75"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="77"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="82"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="75"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="77"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="82"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="77"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="82"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="77"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="82"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="77"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="82"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="75"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="77"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="82"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="75"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="76"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="77"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="82"/>
     </row>
     <row r="44" spans="2:14" ht="261.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="78"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="80"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2934,10 +2921,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2949,12 +2936,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -2975,18 +2962,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
-        <v>229</v>
-      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
@@ -2995,46 +2980,46 @@
       <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" spans="1:11" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="87"/>
     </row>
     <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="87"/>
     </row>
     <row r="7" spans="1:11" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="81"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -3055,13 +3040,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3077,52 +3062,52 @@
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="88"/>
+      <c r="C11" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="89"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
     </row>
     <row r="13" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="87"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="81"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="98"/>
+      <c r="C14" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="94"/>
     </row>
     <row r="15" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="101"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -3149,13 +3134,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3170,17 +3155,17 @@
       </c>
       <c r="D18" s="21"/>
     </row>
-    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="81"/>
+      <c r="C19" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="87"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
@@ -3198,16 +3183,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3224,204 +3209,195 @@
     </row>
     <row r="23" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="87"/>
+    </row>
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="87"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="81"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="B28" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="113" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="114"/>
+    </row>
+    <row r="29" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="98"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+    </row>
+    <row r="30" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="81"/>
-    </row>
-    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="B30" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="102"/>
+    </row>
+    <row r="31" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="98"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="87"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="81"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="B33" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="B34" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82" t="s">
+      <c r="B35" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="103"/>
+    </row>
+    <row r="36" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="98"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="105"/>
+    </row>
+    <row r="37" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="94" t="s">
+      <c r="B37" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="95"/>
-    </row>
-    <row r="30" spans="1:4" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="87" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="81"/>
-    </row>
-    <row r="31" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="87"/>
-    </row>
-    <row r="32" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="81"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="91"/>
-    </row>
-    <row r="37" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
-    </row>
-    <row r="38" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="81"/>
-    </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="81"/>
+      <c r="C37" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="26">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A11:A12"/>
@@ -3431,26 +3407,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3461,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3477,37 +3433,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105"/>
+      <c r="A1" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3515,22 +3471,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>171</v>
+        <v>85</v>
+      </c>
+      <c r="G3" s="117" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3538,22 +3494,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>181</v>
+        <v>83</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>130</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>172</v>
+        <v>85</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -3561,22 +3517,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>173</v>
+        <v>84</v>
+      </c>
+      <c r="E5" s="117" t="s">
+        <v>123</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3584,22 +3540,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>176</v>
+        <v>84</v>
+      </c>
+      <c r="E6" s="117" t="s">
+        <v>126</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>175</v>
+        <v>85</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
@@ -3607,22 +3563,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -3630,22 +3586,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>178</v>
+        <v>85</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3798,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3813,12 +3769,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -3834,22 +3790,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>232</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
@@ -3868,422 +3822,374 @@
         <v>5</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D5" s="28"/>
     </row>
-    <row r="6" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="28"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27">
+        <v>2</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C13" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D13" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
-        <v>2</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
+        <v>3</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B15" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C18" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D18" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
-        <v>3</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C24" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D24" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="B25" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B26" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C26" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="B27" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="28" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="B28" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="B30" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="B31" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="30"/>
-    </row>
-    <row r="29" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+      <c r="B32" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>98</v>
-      </c>
+      <c r="B33" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="30"/>
-    </row>
-    <row r="35" spans="1:4" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="28"/>
-    </row>
-    <row r="36" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="28"/>
-    </row>
-    <row r="37" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="28"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4297,8 +4203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4311,37 +4217,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
+      <c r="A1" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -4349,68 +4255,68 @@
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>149</v>
+        <v>87</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
@@ -4418,22 +4324,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>149</v>
+        <v>87</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4441,45 +4347,45 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>149</v>
+        <v>87</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4492,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4507,15 +4413,15 @@
     <col min="5" max="16384" width="8.88671875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="62"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="67"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
@@ -4529,21 +4435,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
@@ -4554,23 +4460,20 @@
         <v>45</v>
       </c>
       <c r="D4" s="30"/>
-      <c r="F4" s="36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>203</v>
       </c>
       <c r="D5" s="41"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>4</v>
       </c>
@@ -4584,21 +4487,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>4</v>
       </c>
@@ -4610,261 +4513,265 @@
       </c>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D9" s="41"/>
     </row>
-    <row r="10" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="41"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B10" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D10" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+    <row r="11" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" spans="1:4" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="41"/>
+    </row>
+    <row r="23" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="41"/>
-    </row>
-    <row r="15" spans="1:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="16" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="41"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="41"/>
-    </row>
-    <row r="21" spans="1:4" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="41"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="41"/>
-    </row>
-    <row r="26" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="41"/>
-    </row>
-    <row r="27" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4879,83 +4786,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
+      <c r="A1" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40">
         <v>1</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E3" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <v>2</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>149</v>
+        <v>137</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4963,22 +4870,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>149</v>
+        <v>87</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
@@ -4986,22 +4893,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5009,22 +4916,45 @@
         <v>5</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>149</v>
+        <v>87</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51">
+        <v>6</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
